--- a/data/pca/factorExposure/factorExposure_2018-02-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.008193873509282561</v>
+        <v>0.009171019369143959</v>
       </c>
       <c r="C2">
-        <v>0.02041618480820989</v>
+        <v>-0.0233551313806142</v>
       </c>
       <c r="D2">
-        <v>0.0203302272283942</v>
+        <v>-0.02499570345787625</v>
       </c>
       <c r="E2">
-        <v>-0.02778024928589564</v>
+        <v>0.01766853235737925</v>
       </c>
       <c r="F2">
-        <v>0.07656111170027233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.008172643872546716</v>
+      </c>
+      <c r="G2">
+        <v>-0.006613284790323598</v>
+      </c>
+      <c r="H2">
+        <v>-0.02970706582043233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09475290365343836</v>
+        <v>0.05703251419167218</v>
       </c>
       <c r="C3">
-        <v>0.02776298654862881</v>
+        <v>-0.07351242333869894</v>
       </c>
       <c r="D3">
-        <v>-0.02001003983892347</v>
+        <v>-0.007018468876951921</v>
       </c>
       <c r="E3">
-        <v>-0.1283480885584408</v>
+        <v>0.06002342376533597</v>
       </c>
       <c r="F3">
-        <v>0.2914100543748565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0458316174027342</v>
+      </c>
+      <c r="G3">
+        <v>-0.04585246246390706</v>
+      </c>
+      <c r="H3">
+        <v>-0.1112337284012637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04142021227242412</v>
+        <v>0.03489080475285793</v>
       </c>
       <c r="C4">
-        <v>0.002320832829557189</v>
+        <v>-0.0653025889433335</v>
       </c>
       <c r="D4">
-        <v>0.02670411268474154</v>
+        <v>-0.01875812777385368</v>
       </c>
       <c r="E4">
-        <v>0.01461734208926371</v>
+        <v>-0.007766914303346666</v>
       </c>
       <c r="F4">
-        <v>0.06684239752109156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02016463871034482</v>
+      </c>
+      <c r="G4">
+        <v>-0.04702890863366026</v>
+      </c>
+      <c r="H4">
+        <v>-0.03048118194571427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03994026270024897</v>
+        <v>0.01709799149976231</v>
       </c>
       <c r="C6">
-        <v>0.01146944643638892</v>
+        <v>-0.06092516484567646</v>
       </c>
       <c r="D6">
-        <v>0.03761005322419706</v>
+        <v>-0.01362427908549029</v>
       </c>
       <c r="E6">
-        <v>0.02201911901639237</v>
+        <v>-0.01178715853260498</v>
       </c>
       <c r="F6">
-        <v>0.03948206113986328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0001771557813674981</v>
+      </c>
+      <c r="G6">
+        <v>-0.02944381183159013</v>
+      </c>
+      <c r="H6">
+        <v>-0.03309719653398398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0395523224829511</v>
+        <v>0.003277360814627386</v>
       </c>
       <c r="C7">
-        <v>-0.03744889994632043</v>
+        <v>-0.03777794288129549</v>
       </c>
       <c r="D7">
-        <v>0.01612003494909909</v>
+        <v>-0.01149007855641092</v>
       </c>
       <c r="E7">
-        <v>0.006325503416787107</v>
+        <v>-0.02164779769916815</v>
       </c>
       <c r="F7">
-        <v>0.04285472024901049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04979756611389036</v>
+      </c>
+      <c r="G7">
+        <v>-0.00807315791893214</v>
+      </c>
+      <c r="H7">
+        <v>-0.01772000454823237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008971619079396656</v>
+        <v>-0.005103457440222607</v>
       </c>
       <c r="C8">
-        <v>-0.005296171868150615</v>
+        <v>-0.004007409797098719</v>
       </c>
       <c r="D8">
-        <v>0.02526792679493942</v>
+        <v>-0.001920815324364665</v>
       </c>
       <c r="E8">
-        <v>0.006712413528776277</v>
+        <v>0.0004594159007672167</v>
       </c>
       <c r="F8">
-        <v>0.06188572405751554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01686131905521615</v>
+      </c>
+      <c r="G8">
+        <v>-0.01683529222504175</v>
+      </c>
+      <c r="H8">
+        <v>-0.0189059684928915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03601117807259548</v>
+        <v>0.01650064590401334</v>
       </c>
       <c r="C9">
-        <v>-0.0002460649970409517</v>
+        <v>-0.04704484427470248</v>
       </c>
       <c r="D9">
-        <v>0.0279156760908338</v>
+        <v>-0.01327822042626299</v>
       </c>
       <c r="E9">
-        <v>-0.0131227479169963</v>
+        <v>-0.006652645065737852</v>
       </c>
       <c r="F9">
-        <v>0.06981950415408215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01864492843576105</v>
+      </c>
+      <c r="G9">
+        <v>-0.01589975643697384</v>
+      </c>
+      <c r="H9">
+        <v>-0.0344123910658854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05481150093639765</v>
+        <v>0.1300668561237301</v>
       </c>
       <c r="C10">
-        <v>0.01582326059191254</v>
+        <v>0.1507264763358749</v>
       </c>
       <c r="D10">
-        <v>-0.1508981991755046</v>
+        <v>0.02104757722966624</v>
       </c>
       <c r="E10">
-        <v>-0.08482935177608582</v>
+        <v>0.03247826446656573</v>
       </c>
       <c r="F10">
-        <v>0.01086753426292231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.02924730964073818</v>
+      </c>
+      <c r="G10">
+        <v>0.02826649844942366</v>
+      </c>
+      <c r="H10">
+        <v>0.0007556523353371531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02903987452344943</v>
+        <v>0.01347674636261119</v>
       </c>
       <c r="C11">
-        <v>0.01352228417097474</v>
+        <v>-0.04920256857777103</v>
       </c>
       <c r="D11">
-        <v>0.03889794707847487</v>
+        <v>0.0003585437288064066</v>
       </c>
       <c r="E11">
-        <v>0.02122819299664357</v>
+        <v>-0.01065847391275551</v>
       </c>
       <c r="F11">
-        <v>0.03010642088775935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.002639951588080921</v>
+      </c>
+      <c r="G11">
+        <v>-0.01387296017558242</v>
+      </c>
+      <c r="H11">
+        <v>-0.03557401168648453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03928090941785672</v>
+        <v>0.01771438520077365</v>
       </c>
       <c r="C12">
-        <v>0.009876767723182753</v>
+        <v>-0.04640079284846448</v>
       </c>
       <c r="D12">
-        <v>0.03468902193988099</v>
+        <v>-0.003562205849638126</v>
       </c>
       <c r="E12">
-        <v>0.03424638711651645</v>
+        <v>-0.01889073048303015</v>
       </c>
       <c r="F12">
-        <v>0.009811693461564738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.006785776449128496</v>
+      </c>
+      <c r="G12">
+        <v>-0.007750349657745506</v>
+      </c>
+      <c r="H12">
+        <v>-0.01353218414912075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01288078305582253</v>
+        <v>0.01172947850458221</v>
       </c>
       <c r="C13">
-        <v>0.01913223421867293</v>
+        <v>-0.02396545456577403</v>
       </c>
       <c r="D13">
-        <v>0.004178160154169647</v>
+        <v>-0.02142866553017964</v>
       </c>
       <c r="E13">
-        <v>-0.01564773384645681</v>
+        <v>0.01461798335421029</v>
       </c>
       <c r="F13">
-        <v>0.06698998913388138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.002895988543712978</v>
+      </c>
+      <c r="G13">
+        <v>-0.03197069430180455</v>
+      </c>
+      <c r="H13">
+        <v>-0.05043907505188002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02336081138976649</v>
+        <v>0.003357411252541587</v>
       </c>
       <c r="C14">
-        <v>-0.008267912827472784</v>
+        <v>-0.01982896103609629</v>
       </c>
       <c r="D14">
-        <v>0.01005903966268436</v>
+        <v>-0.006985430056386207</v>
       </c>
       <c r="E14">
-        <v>0.003953395354769669</v>
+        <v>-0.01078289782301437</v>
       </c>
       <c r="F14">
-        <v>0.04544896215267215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02428854133354115</v>
+      </c>
+      <c r="G14">
+        <v>-0.01098721650407547</v>
+      </c>
+      <c r="H14">
+        <v>-0.009247769393270178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02839848802837706</v>
+        <v>0.01358129110779008</v>
       </c>
       <c r="C16">
-        <v>0.01116965761234411</v>
+        <v>-0.04192946521089583</v>
       </c>
       <c r="D16">
-        <v>0.03981228903671017</v>
+        <v>0.0005042592313660783</v>
       </c>
       <c r="E16">
-        <v>0.02302979081085852</v>
+        <v>-0.009398679173684147</v>
       </c>
       <c r="F16">
-        <v>0.03662200867978997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.003027970730220169</v>
+      </c>
+      <c r="G16">
+        <v>-0.01308361970961107</v>
+      </c>
+      <c r="H16">
+        <v>-0.02532760536903678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03385364448753078</v>
+        <v>0.01742656843586055</v>
       </c>
       <c r="C19">
-        <v>0.007774728229013461</v>
+        <v>-0.04461003201299597</v>
       </c>
       <c r="D19">
-        <v>0.02311696811047761</v>
+        <v>-0.011177701622007</v>
       </c>
       <c r="E19">
-        <v>0.01809165315997531</v>
+        <v>0.01424671019566575</v>
       </c>
       <c r="F19">
-        <v>0.09082244411203945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02285521515833767</v>
+      </c>
+      <c r="G19">
+        <v>-0.04365088490319354</v>
+      </c>
+      <c r="H19">
+        <v>-0.0438177299329331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00152992923181201</v>
+        <v>-4.620078270402981e-05</v>
       </c>
       <c r="C20">
-        <v>-0.01135468043553987</v>
+        <v>-0.02069393188105284</v>
       </c>
       <c r="D20">
-        <v>-0.00153589167741479</v>
+        <v>-0.01088509452925912</v>
       </c>
       <c r="E20">
-        <v>-0.00366518849574919</v>
+        <v>0.008481938495058666</v>
       </c>
       <c r="F20">
-        <v>0.04889060658996212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01767631279178459</v>
+      </c>
+      <c r="G20">
+        <v>-0.02248139945270443</v>
+      </c>
+      <c r="H20">
+        <v>-0.01909400097241746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03221546350883655</v>
+        <v>0.00250380348093578</v>
       </c>
       <c r="C21">
-        <v>-0.006748004663861913</v>
+        <v>-0.02011447441845937</v>
       </c>
       <c r="D21">
-        <v>0.02570901651355975</v>
+        <v>-0.01402457044320547</v>
       </c>
       <c r="E21">
-        <v>0.0004031699637304627</v>
+        <v>0.01068508361439571</v>
       </c>
       <c r="F21">
-        <v>0.03551647054277197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02862807474161793</v>
+      </c>
+      <c r="G21">
+        <v>-0.008979315564114241</v>
+      </c>
+      <c r="H21">
+        <v>-0.03192723438692462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02572396899017874</v>
+        <v>0.00827074397728569</v>
       </c>
       <c r="C24">
-        <v>0.01160011162547495</v>
+        <v>-0.04107002711118887</v>
       </c>
       <c r="D24">
-        <v>0.02681942890073324</v>
+        <v>-0.004520647998269606</v>
       </c>
       <c r="E24">
-        <v>0.01857919989980313</v>
+        <v>-0.01414941030490612</v>
       </c>
       <c r="F24">
-        <v>0.02763240568471261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.001839908340579715</v>
+      </c>
+      <c r="G24">
+        <v>-0.01016155274652602</v>
+      </c>
+      <c r="H24">
+        <v>-0.02946689684597244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03708838492170862</v>
+        <v>0.02292716704705334</v>
       </c>
       <c r="C25">
-        <v>0.01271318360101575</v>
+        <v>-0.05252867548071414</v>
       </c>
       <c r="D25">
-        <v>0.03223367270838198</v>
+        <v>-0.007972239963643889</v>
       </c>
       <c r="E25">
-        <v>0.0108132443387896</v>
+        <v>-0.02173990431256779</v>
       </c>
       <c r="F25">
-        <v>0.04208747897126625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.005181726462355847</v>
+      </c>
+      <c r="G25">
+        <v>-0.01814263530582504</v>
+      </c>
+      <c r="H25">
+        <v>-0.02643243724380146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01360791470809662</v>
+        <v>0.001739210638955693</v>
       </c>
       <c r="C26">
-        <v>0.0006994250147858986</v>
+        <v>-0.00577649458009697</v>
       </c>
       <c r="D26">
-        <v>0.01712233068782868</v>
+        <v>-0.02319319459837957</v>
       </c>
       <c r="E26">
-        <v>-0.02637964152946609</v>
+        <v>-0.002495280523551031</v>
       </c>
       <c r="F26">
-        <v>0.0445173522011436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01296317588724953</v>
+      </c>
+      <c r="G26">
+        <v>-0.000143717174544157</v>
+      </c>
+      <c r="H26">
+        <v>-0.01228013587880961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01690519753766709</v>
+        <v>0.005418100352027346</v>
       </c>
       <c r="C27">
-        <v>-0.003183682083037059</v>
+        <v>-0.003102706628502976</v>
       </c>
       <c r="D27">
-        <v>-0.007631843612718283</v>
+        <v>0.001365061883319283</v>
       </c>
       <c r="E27">
-        <v>0.01639967146142788</v>
+        <v>-0.002129044717704828</v>
       </c>
       <c r="F27">
-        <v>0.02120002557527463</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01162912672935388</v>
+      </c>
+      <c r="G27">
+        <v>-0.006703945297007436</v>
+      </c>
+      <c r="H27">
+        <v>0.005855584449398935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09596964938922234</v>
+        <v>0.1806802761983596</v>
       </c>
       <c r="C28">
-        <v>0.02017039321153451</v>
+        <v>0.1884529696983527</v>
       </c>
       <c r="D28">
-        <v>-0.2111335546552487</v>
+        <v>0.01510292272274243</v>
       </c>
       <c r="E28">
-        <v>-0.1122023649895318</v>
+        <v>0.02384423397979078</v>
       </c>
       <c r="F28">
-        <v>-0.004345262934482652</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0428526771039441</v>
+      </c>
+      <c r="G28">
+        <v>0.02636343122822186</v>
+      </c>
+      <c r="H28">
+        <v>-0.0004093221717307943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02445958116407533</v>
+        <v>0.009499691842405291</v>
       </c>
       <c r="C29">
-        <v>-0.005429902083642718</v>
+        <v>-0.01868002434458892</v>
       </c>
       <c r="D29">
-        <v>0.009087361044848549</v>
+        <v>-0.005758752511995438</v>
       </c>
       <c r="E29">
-        <v>0.005673822664932056</v>
+        <v>-0.008607703618581285</v>
       </c>
       <c r="F29">
-        <v>0.04280082173205261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02259090188779727</v>
+      </c>
+      <c r="G29">
+        <v>-0.009984664932509591</v>
+      </c>
+      <c r="H29">
+        <v>-0.001446709695657605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04128224457509284</v>
+        <v>0.02481338517869096</v>
       </c>
       <c r="C30">
-        <v>0.05778669877212354</v>
+        <v>-0.08428566670782532</v>
       </c>
       <c r="D30">
-        <v>0.05402680217702839</v>
+        <v>-0.02307253540034973</v>
       </c>
       <c r="E30">
-        <v>-0.00224977715032443</v>
+        <v>0.005558482667541884</v>
       </c>
       <c r="F30">
-        <v>0.08465006255109496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02553769808266683</v>
+      </c>
+      <c r="G30">
+        <v>-0.0376175506957583</v>
+      </c>
+      <c r="H30">
+        <v>-0.04672164396862948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04377985293712401</v>
+        <v>0.02969390720600378</v>
       </c>
       <c r="C31">
-        <v>0.01650041628669301</v>
+        <v>-0.02781749212874822</v>
       </c>
       <c r="D31">
-        <v>0.01985586375246745</v>
+        <v>-0.001343115045627452</v>
       </c>
       <c r="E31">
-        <v>0.01489602751013646</v>
+        <v>-0.01092112797372506</v>
       </c>
       <c r="F31">
-        <v>0.03503942675877421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01112306186650666</v>
+      </c>
+      <c r="G31">
+        <v>0.006970448611261871</v>
+      </c>
+      <c r="H31">
+        <v>0.008080216627993284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01775729623145203</v>
+        <v>0.007052721914129567</v>
       </c>
       <c r="C32">
-        <v>-0.02828860714357933</v>
+        <v>-0.02024597951466511</v>
       </c>
       <c r="D32">
-        <v>0.02631761547554411</v>
+        <v>0.008716028504141566</v>
       </c>
       <c r="E32">
-        <v>0.01581470777355305</v>
+        <v>-0.0002802129894438091</v>
       </c>
       <c r="F32">
-        <v>0.06129887319203302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.02752955478461213</v>
+      </c>
+      <c r="G32">
+        <v>-0.06230345745553189</v>
+      </c>
+      <c r="H32">
+        <v>-0.06105291943254239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03179846711607895</v>
+        <v>0.0120484480225226</v>
       </c>
       <c r="C33">
-        <v>0.03370870289799915</v>
+        <v>-0.04532581923383017</v>
       </c>
       <c r="D33">
-        <v>0.04372058065981036</v>
+        <v>-0.01192806029338059</v>
       </c>
       <c r="E33">
-        <v>-0.008767530972346903</v>
+        <v>0.007076697036145416</v>
       </c>
       <c r="F33">
-        <v>0.05675719981068028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.002221082229615736</v>
+      </c>
+      <c r="G33">
+        <v>0.003467037591349016</v>
+      </c>
+      <c r="H33">
+        <v>-0.03758003543503559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03137947321671081</v>
+        <v>0.02476020470725934</v>
       </c>
       <c r="C34">
-        <v>0.003748940645485676</v>
+        <v>-0.05153866120881969</v>
       </c>
       <c r="D34">
-        <v>0.03943241119361013</v>
+        <v>0.008597322799702788</v>
       </c>
       <c r="E34">
-        <v>0.02892641962962204</v>
+        <v>-0.02586860311360751</v>
       </c>
       <c r="F34">
-        <v>0.03766073201223395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.006121447481186582</v>
+      </c>
+      <c r="G34">
+        <v>-0.01670843977896801</v>
+      </c>
+      <c r="H34">
+        <v>-0.0286361181674405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01824865227053138</v>
+        <v>0.007745220396779554</v>
       </c>
       <c r="C36">
-        <v>-0.005258466739710222</v>
+        <v>-0.003378409376236462</v>
       </c>
       <c r="D36">
-        <v>0.001902801766196818</v>
+        <v>-0.01006046357722006</v>
       </c>
       <c r="E36">
-        <v>-0.002104861680830489</v>
+        <v>-0.003117802640858799</v>
       </c>
       <c r="F36">
-        <v>0.02801528390779772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01613808690454741</v>
+      </c>
+      <c r="G36">
+        <v>0.0008870218543767285</v>
+      </c>
+      <c r="H36">
+        <v>-0.006891995538738663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01539881136297171</v>
+        <v>0.02411873009363718</v>
       </c>
       <c r="C38">
-        <v>0.01000248902053094</v>
+        <v>-0.0191169282188379</v>
       </c>
       <c r="D38">
-        <v>0.001620474827219685</v>
+        <v>0.0102509360771556</v>
       </c>
       <c r="E38">
-        <v>-0.0308369461983591</v>
+        <v>-0.005859015352887059</v>
       </c>
       <c r="F38">
-        <v>0.03543724108751984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.003791217438374305</v>
+      </c>
+      <c r="G38">
+        <v>-0.008081517954880407</v>
+      </c>
+      <c r="H38">
+        <v>-0.01758415622889706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0226917571472455</v>
+        <v>-0.0001902354337744509</v>
       </c>
       <c r="C39">
-        <v>0.01098931663018905</v>
+        <v>-0.08469646833692322</v>
       </c>
       <c r="D39">
-        <v>0.05555803046269152</v>
+        <v>-0.009918544282790343</v>
       </c>
       <c r="E39">
-        <v>0.0104895595676197</v>
+        <v>-0.01052761510063454</v>
       </c>
       <c r="F39">
-        <v>0.05726033277844251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.009496704202644549</v>
+      </c>
+      <c r="G39">
+        <v>-0.02057494363661705</v>
+      </c>
+      <c r="H39">
+        <v>-0.05870274006726315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0158194089614786</v>
+        <v>0.0166654351163244</v>
       </c>
       <c r="C40">
-        <v>0.03670176885876471</v>
+        <v>-0.02481625289270551</v>
       </c>
       <c r="D40">
-        <v>0.01939557492229052</v>
+        <v>-0.008932491848779507</v>
       </c>
       <c r="E40">
-        <v>0.02049089535807833</v>
+        <v>0.001770949828398816</v>
       </c>
       <c r="F40">
-        <v>0.03605569467608635</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02105017978416533</v>
+      </c>
+      <c r="G40">
+        <v>-0.02251048978109408</v>
+      </c>
+      <c r="H40">
+        <v>-0.03151234280852656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.007158112807332344</v>
+        <v>0.009747853249657075</v>
       </c>
       <c r="C41">
-        <v>0.001612808391584137</v>
+        <v>0.009003257859314703</v>
       </c>
       <c r="D41">
-        <v>-0.001251887586645209</v>
+        <v>-0.002763630162774974</v>
       </c>
       <c r="E41">
-        <v>-0.018807841892125</v>
+        <v>-0.00439657642589275</v>
       </c>
       <c r="F41">
-        <v>-0.006490219598212233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004802449327569964</v>
+      </c>
+      <c r="G41">
+        <v>0.01419042375015517</v>
+      </c>
+      <c r="H41">
+        <v>0.002609918987118826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2374034210295034</v>
+        <v>0.06626998443220229</v>
       </c>
       <c r="C42">
-        <v>0.1931588038034583</v>
+        <v>-0.1869867281766395</v>
       </c>
       <c r="D42">
-        <v>0.4302401642597738</v>
+        <v>-0.1220166090855635</v>
       </c>
       <c r="E42">
-        <v>-0.6342639477436222</v>
+        <v>0.137632724144707</v>
       </c>
       <c r="F42">
-        <v>-0.5163451265665835</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.09581056946425556</v>
+      </c>
+      <c r="G42">
+        <v>0.9285447475260139</v>
+      </c>
+      <c r="H42">
+        <v>-0.1840621540017789</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.008743854001880304</v>
+        <v>0.0119214672614102</v>
       </c>
       <c r="C43">
-        <v>0.007041782151594317</v>
+        <v>0.003981097350766476</v>
       </c>
       <c r="D43">
-        <v>0.003448452320670072</v>
+        <v>-0.003309172964102193</v>
       </c>
       <c r="E43">
-        <v>-0.01545207504015149</v>
+        <v>0.0003094603613225324</v>
       </c>
       <c r="F43">
-        <v>0.02221592903652401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00166561632177638</v>
+      </c>
+      <c r="G43">
+        <v>0.008231545962714078</v>
+      </c>
+      <c r="H43">
+        <v>-0.006359891823583923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02086180580382618</v>
+        <v>0.003321207288865368</v>
       </c>
       <c r="C44">
-        <v>-0.01494704737233379</v>
+        <v>-0.04049340604565554</v>
       </c>
       <c r="D44">
-        <v>0.02113958424092292</v>
+        <v>-0.004957712121151868</v>
       </c>
       <c r="E44">
-        <v>-0.02632514539498536</v>
+        <v>0.004244972143667778</v>
       </c>
       <c r="F44">
-        <v>0.07761028155806593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02962880898875307</v>
+      </c>
+      <c r="G44">
+        <v>-0.006550838795544856</v>
+      </c>
+      <c r="H44">
+        <v>-0.05163840756732593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01850598537066992</v>
+        <v>0.0004845008987023172</v>
       </c>
       <c r="C46">
-        <v>0.004557406876900291</v>
+        <v>-0.01095866823922079</v>
       </c>
       <c r="D46">
-        <v>0.03733288443761485</v>
+        <v>-0.01087091765603177</v>
       </c>
       <c r="E46">
-        <v>0.005658188410487408</v>
+        <v>0.000541505941398242</v>
       </c>
       <c r="F46">
-        <v>0.07421330668106567</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01307467675922087</v>
+      </c>
+      <c r="G46">
+        <v>-0.004144460976844134</v>
+      </c>
+      <c r="H46">
+        <v>-0.005337628944887509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07099800804741584</v>
+        <v>0.04963183156010086</v>
       </c>
       <c r="C47">
-        <v>0.02833856285400971</v>
+        <v>-0.06236061725244523</v>
       </c>
       <c r="D47">
-        <v>0.01714800213702049</v>
+        <v>0.007966414515722909</v>
       </c>
       <c r="E47">
-        <v>0.03007861952061134</v>
+        <v>-0.01407424453182112</v>
       </c>
       <c r="F47">
-        <v>0.00875983660073121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01301723612072176</v>
+      </c>
+      <c r="G47">
+        <v>0.01238369153792059</v>
+      </c>
+      <c r="H47">
+        <v>0.04330618544078182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02162214413403177</v>
+        <v>0.009534004294494752</v>
       </c>
       <c r="C48">
-        <v>0.006307044345944751</v>
+        <v>-0.01404352952204768</v>
       </c>
       <c r="D48">
-        <v>0.01226797890749079</v>
+        <v>-0.0006727206960773781</v>
       </c>
       <c r="E48">
-        <v>0.0002931591980675355</v>
+        <v>-0.003633449617595879</v>
       </c>
       <c r="F48">
-        <v>0.02948546122590623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.009631216585992515</v>
+      </c>
+      <c r="G48">
+        <v>-0.001243259187295477</v>
+      </c>
+      <c r="H48">
+        <v>-0.009162244744636566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0783709590186141</v>
+        <v>0.05450262258251156</v>
       </c>
       <c r="C50">
-        <v>0.00203741366720761</v>
+        <v>-0.05861725272904299</v>
       </c>
       <c r="D50">
-        <v>0.04412873375603579</v>
+        <v>0.006841736498759931</v>
       </c>
       <c r="E50">
-        <v>0.02710707250487228</v>
+        <v>-0.01528301521545752</v>
       </c>
       <c r="F50">
-        <v>0.02227270759654183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03456042672273523</v>
+      </c>
+      <c r="G50">
+        <v>0.01064910205682746</v>
+      </c>
+      <c r="H50">
+        <v>0.03251908982121665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01853584405884076</v>
+        <v>0.007957942900751261</v>
       </c>
       <c r="C51">
-        <v>-0.001741830025206039</v>
+        <v>-0.01553874033908164</v>
       </c>
       <c r="D51">
-        <v>-0.009295235645773664</v>
+        <v>-0.006376766299658986</v>
       </c>
       <c r="E51">
-        <v>-0.02805940633429557</v>
+        <v>-0.008935168324154091</v>
       </c>
       <c r="F51">
-        <v>0.08684992868358823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01792442213311753</v>
+      </c>
+      <c r="G51">
+        <v>-0.009347861233246081</v>
+      </c>
+      <c r="H51">
+        <v>-0.03523558961725502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09244120294226925</v>
+        <v>0.06790513154156073</v>
       </c>
       <c r="C53">
-        <v>0.03151328761766892</v>
+        <v>-0.09454701220422823</v>
       </c>
       <c r="D53">
-        <v>0.04092679307467636</v>
+        <v>0.008993527344482593</v>
       </c>
       <c r="E53">
-        <v>0.06981890506191668</v>
+        <v>-0.04017196260466532</v>
       </c>
       <c r="F53">
-        <v>-0.01818828275509637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.005381042625763266</v>
+      </c>
+      <c r="G53">
+        <v>0.01330406199879242</v>
+      </c>
+      <c r="H53">
+        <v>0.05012392133060969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02841824951811279</v>
+        <v>0.01986486974857263</v>
       </c>
       <c r="C54">
-        <v>-0.003671327599584094</v>
+        <v>0.0005959206896477242</v>
       </c>
       <c r="D54">
-        <v>-0.006257694530878675</v>
+        <v>0.005510727398816698</v>
       </c>
       <c r="E54">
-        <v>0.006379656988208771</v>
+        <v>0.001713899955446959</v>
       </c>
       <c r="F54">
-        <v>0.02998734741128095</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02376613701327904</v>
+      </c>
+      <c r="G54">
+        <v>-0.005303783946832945</v>
+      </c>
+      <c r="H54">
+        <v>0.00013339047618295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07952226304470197</v>
+        <v>0.04962345985912879</v>
       </c>
       <c r="C55">
-        <v>0.02590205783263549</v>
+        <v>-0.08556692654258025</v>
       </c>
       <c r="D55">
-        <v>0.06021296997516713</v>
+        <v>0.007147107167324091</v>
       </c>
       <c r="E55">
-        <v>0.04666444168875408</v>
+        <v>-0.02857026470307838</v>
       </c>
       <c r="F55">
-        <v>-0.02024773939630159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.008888544126586507</v>
+      </c>
+      <c r="G55">
+        <v>0.01898552952579151</v>
+      </c>
+      <c r="H55">
+        <v>0.04716364586122436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1252218683802021</v>
+        <v>0.1053538560685866</v>
       </c>
       <c r="C56">
-        <v>0.05103970558493898</v>
+        <v>-0.1289817140184467</v>
       </c>
       <c r="D56">
-        <v>0.04249694407491482</v>
+        <v>0.01914146712585916</v>
       </c>
       <c r="E56">
-        <v>0.09898995342787253</v>
+        <v>-0.04344875432749006</v>
       </c>
       <c r="F56">
-        <v>-0.04423674972546506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.006425126600643734</v>
+      </c>
+      <c r="G56">
+        <v>0.009077607775052248</v>
+      </c>
+      <c r="H56">
+        <v>0.090618965801539</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04073595628411112</v>
+        <v>0.01932761874863241</v>
       </c>
       <c r="C57">
-        <v>0.01288734525263034</v>
+        <v>-0.027611289906484</v>
       </c>
       <c r="D57">
-        <v>0.02362654766856578</v>
+        <v>-0.0228775195536427</v>
       </c>
       <c r="E57">
-        <v>-0.04173464078666193</v>
+        <v>0.02754750328211178</v>
       </c>
       <c r="F57">
-        <v>0.04760273555118139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02458624937290644</v>
+      </c>
+      <c r="G57">
+        <v>-0.01690322209074484</v>
+      </c>
+      <c r="H57">
+        <v>-0.05133234913906825</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1522742715837657</v>
+        <v>0.07142931796530808</v>
       </c>
       <c r="C58">
-        <v>0.1837436828151101</v>
+        <v>-0.2102251172427269</v>
       </c>
       <c r="D58">
-        <v>0.2154415138498381</v>
+        <v>-0.01264760247074997</v>
       </c>
       <c r="E58">
-        <v>-0.2288164201827116</v>
+        <v>0.9287192315046829</v>
       </c>
       <c r="F58">
-        <v>0.5586337168883863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.1665893800055634</v>
+      </c>
+      <c r="G58">
+        <v>-0.1506784972009768</v>
+      </c>
+      <c r="H58">
+        <v>0.1059054608733112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08447033667744849</v>
+        <v>0.2020158046004695</v>
       </c>
       <c r="C59">
-        <v>0.04688642994685986</v>
+        <v>0.1719707697716683</v>
       </c>
       <c r="D59">
-        <v>-0.182977826159476</v>
+        <v>0.0231515204003933</v>
       </c>
       <c r="E59">
-        <v>-0.07851160398978298</v>
+        <v>0.02433556138600038</v>
       </c>
       <c r="F59">
-        <v>0.0413480075219913</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.009741638191151055</v>
+      </c>
+      <c r="G59">
+        <v>-0.001419725576484198</v>
+      </c>
+      <c r="H59">
+        <v>-0.01363738959692221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1566605285826504</v>
+        <v>0.2460088097936188</v>
       </c>
       <c r="C60">
-        <v>0.1004645310119836</v>
+        <v>-0.1051449199341644</v>
       </c>
       <c r="D60">
-        <v>-0.005133910109045273</v>
+        <v>0.008833990456824975</v>
       </c>
       <c r="E60">
-        <v>-0.0566211672711262</v>
+        <v>-0.03638287312796924</v>
       </c>
       <c r="F60">
-        <v>0.1418183516987196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1300711657960779</v>
+      </c>
+      <c r="G60">
+        <v>-0.1528744302616105</v>
+      </c>
+      <c r="H60">
+        <v>-0.3727420320743116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02624460864033429</v>
+        <v>0.009543398153586048</v>
       </c>
       <c r="C61">
-        <v>0.01051207752067613</v>
+        <v>-0.06400948531958912</v>
       </c>
       <c r="D61">
-        <v>0.04380046604463773</v>
+        <v>-0.002809421097169767</v>
       </c>
       <c r="E61">
-        <v>0.008510563688632436</v>
+        <v>-0.01036810614276391</v>
       </c>
       <c r="F61">
-        <v>0.0312846280661128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.000307868099475239</v>
+      </c>
+      <c r="G61">
+        <v>-0.02180740570743293</v>
+      </c>
+      <c r="H61">
+        <v>-0.04173094354912871</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01707726655577546</v>
+        <v>0.004884153649806488</v>
       </c>
       <c r="C63">
-        <v>-0.001984348578619073</v>
+        <v>-0.02206613654674792</v>
       </c>
       <c r="D63">
-        <v>0.02018282902441907</v>
+        <v>-0.006678963523434641</v>
       </c>
       <c r="E63">
-        <v>0.007058015812453647</v>
+        <v>-0.0179301216949962</v>
       </c>
       <c r="F63">
-        <v>0.009790944335479916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01616472744376644</v>
+      </c>
+      <c r="G63">
+        <v>-0.005221186567830965</v>
+      </c>
+      <c r="H63">
+        <v>-0.002645706074406161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04299158084742428</v>
+        <v>0.03506466200821579</v>
       </c>
       <c r="C64">
-        <v>0.004659533194323831</v>
+        <v>-0.04363307159309161</v>
       </c>
       <c r="D64">
-        <v>0.02450693012041074</v>
+        <v>-0.001422866799075126</v>
       </c>
       <c r="E64">
-        <v>0.008162642922773567</v>
+        <v>-0.02557027986489951</v>
       </c>
       <c r="F64">
-        <v>0.03121525464163544</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003952556273224393</v>
+      </c>
+      <c r="G64">
+        <v>0.004850578276028545</v>
+      </c>
+      <c r="H64">
+        <v>-0.02688148985366922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04409575830734933</v>
+        <v>0.04580886409644467</v>
       </c>
       <c r="C65">
-        <v>0.01247997002118681</v>
+        <v>-0.08482198546684405</v>
       </c>
       <c r="D65">
-        <v>0.03908688791898079</v>
+        <v>-0.01188931857188061</v>
       </c>
       <c r="E65">
-        <v>0.02860819886297687</v>
+        <v>-0.03098497781587518</v>
       </c>
       <c r="F65">
-        <v>0.03521744679119834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01780572769680084</v>
+      </c>
+      <c r="G65">
+        <v>-0.04544288271601096</v>
+      </c>
+      <c r="H65">
+        <v>-0.04870103176051904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03747828804710974</v>
+        <v>0.009724596646201971</v>
       </c>
       <c r="C66">
-        <v>0.02530238241435032</v>
+        <v>-0.1189284754375576</v>
       </c>
       <c r="D66">
-        <v>0.06197032376712499</v>
+        <v>-0.007345701074518969</v>
       </c>
       <c r="E66">
-        <v>0.04792679870875786</v>
+        <v>-0.01523575340780118</v>
       </c>
       <c r="F66">
-        <v>0.05892609031387743</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01682683174036405</v>
+      </c>
+      <c r="G66">
+        <v>-0.04581345553391706</v>
+      </c>
+      <c r="H66">
+        <v>-0.0577431966780775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02812010198153107</v>
+        <v>0.04746183299363817</v>
       </c>
       <c r="C67">
-        <v>0.01661566202507048</v>
+        <v>-0.02929090518704056</v>
       </c>
       <c r="D67">
-        <v>-0.006065805861839341</v>
+        <v>0.00989385114044989</v>
       </c>
       <c r="E67">
-        <v>-0.02147415295828097</v>
+        <v>-0.01336699164685439</v>
       </c>
       <c r="F67">
-        <v>0.02299897508929775</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0003174403280345975</v>
+      </c>
+      <c r="G67">
+        <v>-0.01419762707479361</v>
+      </c>
+      <c r="H67">
+        <v>-0.01414814883007385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09418786512172501</v>
+        <v>0.1996872319084779</v>
       </c>
       <c r="C68">
-        <v>0.03819057217607778</v>
+        <v>0.2139055952330269</v>
       </c>
       <c r="D68">
-        <v>-0.2006243558231326</v>
+        <v>0.003794455677529914</v>
       </c>
       <c r="E68">
-        <v>-0.09514650070430043</v>
+        <v>0.03875627777020879</v>
       </c>
       <c r="F68">
-        <v>0.01865339364081554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03167952003958075</v>
+      </c>
+      <c r="G68">
+        <v>0.04036040679224361</v>
+      </c>
+      <c r="H68">
+        <v>0.01896349959110236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06297121543472098</v>
+        <v>0.05283669632557269</v>
       </c>
       <c r="C69">
-        <v>0.02600605227460739</v>
+        <v>-0.06044531282326466</v>
       </c>
       <c r="D69">
-        <v>0.01865901740206912</v>
+        <v>0.01275016954023921</v>
       </c>
       <c r="E69">
-        <v>0.03493149816349439</v>
+        <v>-0.02738790687654068</v>
       </c>
       <c r="F69">
-        <v>0.02225700250309853</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.002680216629592831</v>
+      </c>
+      <c r="G69">
+        <v>-0.004072165987301761</v>
+      </c>
+      <c r="H69">
+        <v>0.01931748763031526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09267280906826424</v>
+        <v>0.1807011260550727</v>
       </c>
       <c r="C71">
-        <v>0.04119094238937882</v>
+        <v>0.1659283449406261</v>
       </c>
       <c r="D71">
-        <v>-0.1920350804305019</v>
+        <v>0.0102025115544481</v>
       </c>
       <c r="E71">
-        <v>-0.1319109476534008</v>
+        <v>0.04185535428178538</v>
       </c>
       <c r="F71">
-        <v>0.00562736739363892</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02990729996315671</v>
+      </c>
+      <c r="G71">
+        <v>0.04058467361747928</v>
+      </c>
+      <c r="H71">
+        <v>0.0001523876579285063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0964465308430595</v>
+        <v>0.05623704130673009</v>
       </c>
       <c r="C72">
-        <v>0.05009408386164866</v>
+        <v>-0.09982290026620813</v>
       </c>
       <c r="D72">
-        <v>0.0850533899389992</v>
+        <v>0.01427795382314269</v>
       </c>
       <c r="E72">
-        <v>0.06835381061087731</v>
+        <v>-0.03707738087696322</v>
       </c>
       <c r="F72">
-        <v>0.1425833287503862</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02929428609052212</v>
+      </c>
+      <c r="G72">
+        <v>-0.05928163341546763</v>
+      </c>
+      <c r="H72">
+        <v>-0.05743905610665299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1887042094425431</v>
+        <v>0.3222148848792134</v>
       </c>
       <c r="C73">
-        <v>0.1671301761130332</v>
+        <v>-0.1632782282453605</v>
       </c>
       <c r="D73">
-        <v>0.02810130224867811</v>
+        <v>0.007172011046077903</v>
       </c>
       <c r="E73">
-        <v>-0.09369530761126206</v>
+        <v>-0.02967588823564326</v>
       </c>
       <c r="F73">
-        <v>0.1525119858804906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1902438776538502</v>
+      </c>
+      <c r="G73">
+        <v>-0.1680140593070455</v>
+      </c>
+      <c r="H73">
+        <v>-0.4759318765206133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1216703128335261</v>
+        <v>0.09369841833881565</v>
       </c>
       <c r="C74">
-        <v>0.04994069638779595</v>
+        <v>-0.134220238571753</v>
       </c>
       <c r="D74">
-        <v>0.04607919364670399</v>
+        <v>0.01749395414848719</v>
       </c>
       <c r="E74">
-        <v>0.08578187492449703</v>
+        <v>-0.04491891429364014</v>
       </c>
       <c r="F74">
-        <v>-0.04749352125817986</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.008010582374777017</v>
+      </c>
+      <c r="G74">
+        <v>0.009932125761047751</v>
+      </c>
+      <c r="H74">
+        <v>0.06660179910262741</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2098853756764096</v>
+        <v>0.2086789906317845</v>
       </c>
       <c r="C75">
-        <v>0.1017359922096546</v>
+        <v>-0.219727666323449</v>
       </c>
       <c r="D75">
-        <v>0.04176870134338945</v>
+        <v>0.04021582604256028</v>
       </c>
       <c r="E75">
-        <v>0.201072027099392</v>
+        <v>-0.07076610384731731</v>
       </c>
       <c r="F75">
-        <v>-0.05257738149829712</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.02299526481648205</v>
+      </c>
+      <c r="G75">
+        <v>0.001262997053330276</v>
+      </c>
+      <c r="H75">
+        <v>0.1907032488410741</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2537487513331516</v>
+        <v>0.1402405680932125</v>
       </c>
       <c r="C76">
-        <v>0.07992907925466838</v>
+        <v>-0.1865702826458571</v>
       </c>
       <c r="D76">
-        <v>0.05524100696410432</v>
+        <v>0.03296520375997733</v>
       </c>
       <c r="E76">
-        <v>0.2602560449857754</v>
+        <v>-0.08802580801206243</v>
       </c>
       <c r="F76">
-        <v>-0.1163713874809186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.02367014665943597</v>
+      </c>
+      <c r="G76">
+        <v>0.01123892469495407</v>
+      </c>
+      <c r="H76">
+        <v>0.1594070943551551</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08985689907620491</v>
+        <v>0.04365449818983472</v>
       </c>
       <c r="C77">
-        <v>0.04819786624992952</v>
+        <v>-0.08228725955924129</v>
       </c>
       <c r="D77">
-        <v>0.08370131971599933</v>
+        <v>-0.01021897335155793</v>
       </c>
       <c r="E77">
-        <v>-0.06895027643659306</v>
+        <v>0.03085715126218024</v>
       </c>
       <c r="F77">
-        <v>0.06654731913799072</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02069456650371192</v>
+      </c>
+      <c r="G77">
+        <v>0.02103723382218436</v>
+      </c>
+      <c r="H77">
+        <v>-0.006277741786616628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04875664132668455</v>
+        <v>0.02492004201917553</v>
       </c>
       <c r="C78">
-        <v>0.008128093510052602</v>
+        <v>-0.0737719488129493</v>
       </c>
       <c r="D78">
-        <v>0.09143930373633218</v>
+        <v>-0.003514757352936759</v>
       </c>
       <c r="E78">
-        <v>0.01030574465697571</v>
+        <v>0.002915475320992077</v>
       </c>
       <c r="F78">
-        <v>0.09875374720238377</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.009095955478481868</v>
+      </c>
+      <c r="G78">
+        <v>-0.0292241530618231</v>
+      </c>
+      <c r="H78">
+        <v>-0.06833987149625405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.4823210403424528</v>
+        <v>0.08910946705692907</v>
       </c>
       <c r="C80">
-        <v>-0.8532850475875723</v>
+        <v>-0.1149530992002408</v>
       </c>
       <c r="D80">
-        <v>0.03998584070726192</v>
+        <v>-0.002327839883559632</v>
       </c>
       <c r="E80">
-        <v>-0.08956416216061004</v>
+        <v>-0.1868390254742117</v>
       </c>
       <c r="F80">
-        <v>0.02672380440251199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.9266212266882007</v>
+      </c>
+      <c r="G80">
+        <v>0.05496345497389952</v>
+      </c>
+      <c r="H80">
+        <v>-0.165535784365287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1678564693243918</v>
+        <v>0.1241522032586621</v>
       </c>
       <c r="C81">
-        <v>0.07131389480134087</v>
+        <v>-0.1382431387883925</v>
       </c>
       <c r="D81">
-        <v>0.02161026820644377</v>
+        <v>0.02345624634686936</v>
       </c>
       <c r="E81">
-        <v>0.1553397575329122</v>
+        <v>-0.04429920830281439</v>
       </c>
       <c r="F81">
-        <v>-0.03785436611965243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.004576287206134289</v>
+      </c>
+      <c r="G81">
+        <v>0.004198164047283846</v>
+      </c>
+      <c r="H81">
+        <v>0.1147332759956988</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.00480440350953289</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.003274324565511921</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0007509147538578068</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01209014832809718</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003713809302633696</v>
+      </c>
+      <c r="G82">
+        <v>-0.001091445803425812</v>
+      </c>
+      <c r="H82">
+        <v>-0.001527235451151114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03751818507531503</v>
+        <v>0.02278441362425044</v>
       </c>
       <c r="C83">
-        <v>0.01455338923038913</v>
+        <v>-0.02209543025489105</v>
       </c>
       <c r="D83">
-        <v>0.02017332460787805</v>
+        <v>-0.003458721695794894</v>
       </c>
       <c r="E83">
-        <v>-0.02959864596987405</v>
+        <v>0.01374645683534341</v>
       </c>
       <c r="F83">
-        <v>0.04894690232403757</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01291238621823267</v>
+      </c>
+      <c r="G83">
+        <v>-0.01113350050922952</v>
+      </c>
+      <c r="H83">
+        <v>-0.0373613158730506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2296144379531131</v>
+        <v>0.2010527530292265</v>
       </c>
       <c r="C85">
-        <v>0.1049416074642951</v>
+        <v>-0.2173308208097829</v>
       </c>
       <c r="D85">
-        <v>0.05566944678941677</v>
+        <v>0.0283314101717782</v>
       </c>
       <c r="E85">
-        <v>0.2289918857629149</v>
+        <v>-0.09338701534141552</v>
       </c>
       <c r="F85">
-        <v>-0.07310106013640004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.04760109959167198</v>
+      </c>
+      <c r="G85">
+        <v>-0.0006698081418913556</v>
+      </c>
+      <c r="H85">
+        <v>0.143687697990599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006983717109619733</v>
+        <v>0.006056954154124839</v>
       </c>
       <c r="C86">
-        <v>0.002292847927285025</v>
+        <v>-0.03540117574163434</v>
       </c>
       <c r="D86">
-        <v>0.04472202398080348</v>
+        <v>-0.007347705571026563</v>
       </c>
       <c r="E86">
-        <v>-0.0001455419183599113</v>
+        <v>0.001823728583730038</v>
       </c>
       <c r="F86">
-        <v>0.08793803263929915</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01302337253066624</v>
+      </c>
+      <c r="G86">
+        <v>-0.003066271780392743</v>
+      </c>
+      <c r="H86">
+        <v>-0.04951781739745351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02934422283617914</v>
+        <v>0.002359917280406854</v>
       </c>
       <c r="C87">
-        <v>0.008550368296360026</v>
+        <v>-0.03975856401796056</v>
       </c>
       <c r="D87">
-        <v>0.03479415506048683</v>
+        <v>-0.009139004475323849</v>
       </c>
       <c r="E87">
-        <v>-0.01987202056958777</v>
+        <v>0.03658319187910913</v>
       </c>
       <c r="F87">
-        <v>0.09877415093351843</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02320395363514862</v>
+      </c>
+      <c r="G87">
+        <v>-0.02716022830722113</v>
+      </c>
+      <c r="H87">
+        <v>-0.06883825314053234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03396759099253021</v>
+        <v>0.04218077984428822</v>
       </c>
       <c r="C88">
-        <v>0.005754285449034306</v>
+        <v>-0.02400927025900862</v>
       </c>
       <c r="D88">
-        <v>-0.005799082915665883</v>
+        <v>-0.01814190363589447</v>
       </c>
       <c r="E88">
-        <v>0.010024286860904</v>
+        <v>-0.009993357869081072</v>
       </c>
       <c r="F88">
-        <v>-0.001524322113324545</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01713645106318513</v>
+      </c>
+      <c r="G88">
+        <v>-0.009914421939820848</v>
+      </c>
+      <c r="H88">
+        <v>0.01249577952025412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1527513670680204</v>
+        <v>0.3115418668326238</v>
       </c>
       <c r="C89">
-        <v>0.0919583478842283</v>
+        <v>0.3018270896726537</v>
       </c>
       <c r="D89">
-        <v>-0.3547058492533849</v>
+        <v>0.01696788849612252</v>
       </c>
       <c r="E89">
-        <v>-0.1106180807612814</v>
+        <v>0.02787357912797035</v>
       </c>
       <c r="F89">
-        <v>0.03290349608158995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.004627813232783813</v>
+      </c>
+      <c r="G89">
+        <v>0.02940315876186346</v>
+      </c>
+      <c r="H89">
+        <v>0.02609763503282631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1145756143728662</v>
+        <v>0.2575382794995922</v>
       </c>
       <c r="C90">
-        <v>0.04586694944780188</v>
+        <v>0.2724502949033507</v>
       </c>
       <c r="D90">
-        <v>-0.3270739519792695</v>
+        <v>0.01629979278404618</v>
       </c>
       <c r="E90">
-        <v>-0.120502346096722</v>
+        <v>0.03547953158372247</v>
       </c>
       <c r="F90">
-        <v>-0.03929620063645844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.0344540543631511</v>
+      </c>
+      <c r="G90">
+        <v>0.0553087495264692</v>
+      </c>
+      <c r="H90">
+        <v>0.04987285480154179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.258941952465795</v>
+        <v>0.1854942246364604</v>
       </c>
       <c r="C91">
-        <v>0.1291660729082893</v>
+        <v>-0.188326245930068</v>
       </c>
       <c r="D91">
-        <v>0.06665525994865609</v>
+        <v>0.03579482352575816</v>
       </c>
       <c r="E91">
-        <v>0.2211271695851296</v>
+        <v>-0.07745395347447644</v>
       </c>
       <c r="F91">
-        <v>-0.1658146605472412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.01789792641877158</v>
+      </c>
+      <c r="G91">
+        <v>0.03856731388786949</v>
+      </c>
+      <c r="H91">
+        <v>0.1959639314875734</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1950664340435638</v>
+        <v>0.2774614348037415</v>
       </c>
       <c r="C92">
-        <v>0.09704469912786902</v>
+        <v>0.1929389525956179</v>
       </c>
       <c r="D92">
-        <v>-0.3755211911360331</v>
+        <v>0.06082245993809422</v>
       </c>
       <c r="E92">
-        <v>-0.0144726475046244</v>
+        <v>0.03620749467352419</v>
       </c>
       <c r="F92">
-        <v>-0.1101193192457691</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.04777331899236452</v>
+      </c>
+      <c r="G92">
+        <v>0.03340068534658515</v>
+      </c>
+      <c r="H92">
+        <v>0.1514593332168102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1364758021215224</v>
+        <v>0.2959754820185856</v>
       </c>
       <c r="C93">
-        <v>0.09641774759482692</v>
+        <v>0.255789877325989</v>
       </c>
       <c r="D93">
-        <v>-0.3543273175091673</v>
+        <v>0.02572700945650372</v>
       </c>
       <c r="E93">
-        <v>-0.1642450981728642</v>
+        <v>0.0492109918645206</v>
       </c>
       <c r="F93">
-        <v>-0.05477260790297828</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.001157614828994876</v>
+      </c>
+      <c r="G93">
+        <v>0.04488362220808195</v>
+      </c>
+      <c r="H93">
+        <v>-0.002392433866482078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2720645936182536</v>
+        <v>0.2379262776972103</v>
       </c>
       <c r="C94">
-        <v>0.1586979959131985</v>
+        <v>-0.2317602624891705</v>
       </c>
       <c r="D94">
-        <v>0.008441345693035977</v>
+        <v>0.02677409948970098</v>
       </c>
       <c r="E94">
-        <v>0.2934785352779493</v>
+        <v>-0.1050070423770808</v>
       </c>
       <c r="F94">
-        <v>-0.04246810403285381</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.07584136339956463</v>
+      </c>
+      <c r="G94">
+        <v>-0.03366862177760727</v>
+      </c>
+      <c r="H94">
+        <v>0.4504266027892395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04511102244297688</v>
+        <v>0.05214609565270746</v>
       </c>
       <c r="C95">
-        <v>0.1090673413442964</v>
+        <v>-0.1056797199822733</v>
       </c>
       <c r="D95">
-        <v>0.02651163447446501</v>
+        <v>0.01294964017816283</v>
       </c>
       <c r="E95">
-        <v>0.01271236212114714</v>
+        <v>0.03580393970745711</v>
       </c>
       <c r="F95">
-        <v>0.0504658577551287</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08622456131805607</v>
+      </c>
+      <c r="G95">
+        <v>-0.01135416712373821</v>
+      </c>
+      <c r="H95">
+        <v>-0.03709196209187424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1586146364917371</v>
+        <v>0.1895548974973744</v>
       </c>
       <c r="C98">
-        <v>0.1089001730017967</v>
+        <v>-0.07009137318650541</v>
       </c>
       <c r="D98">
-        <v>-0.02023714340685506</v>
+        <v>0.02984100627633187</v>
       </c>
       <c r="E98">
-        <v>-0.1125583594928751</v>
+        <v>0.0239363011738665</v>
       </c>
       <c r="F98">
-        <v>0.1321589690090511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.07471320939439656</v>
+      </c>
+      <c r="G98">
+        <v>-0.06681518531928793</v>
+      </c>
+      <c r="H98">
+        <v>-0.3066292782521749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.008751310971142364</v>
+        <v>0.003468380180065931</v>
       </c>
       <c r="C101">
-        <v>-0.004933151170476558</v>
+        <v>-0.01978696339664209</v>
       </c>
       <c r="D101">
-        <v>0.03293843932735736</v>
+        <v>-0.006750070726028857</v>
       </c>
       <c r="E101">
-        <v>-0.03058879927432028</v>
+        <v>0.02912542050501854</v>
       </c>
       <c r="F101">
-        <v>0.1759718429990986</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03185537922237634</v>
+      </c>
+      <c r="G101">
+        <v>-0.02802977335542504</v>
+      </c>
+      <c r="H101">
+        <v>0.000537127653380293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1088728888481009</v>
+        <v>0.1027904984883121</v>
       </c>
       <c r="C102">
-        <v>0.05016614663114077</v>
+        <v>-0.106378797105744</v>
       </c>
       <c r="D102">
-        <v>0.03112788533926645</v>
+        <v>0.006891632200626876</v>
       </c>
       <c r="E102">
-        <v>0.1143139509559421</v>
+        <v>-0.05094072240233485</v>
       </c>
       <c r="F102">
-        <v>-0.06346501506091586</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.02264467481404964</v>
+      </c>
+      <c r="G102">
+        <v>-0.001161305225563</v>
+      </c>
+      <c r="H102">
+        <v>0.07398786903506353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03933818321123653</v>
+        <v>0.009264281090417556</v>
       </c>
       <c r="C103">
-        <v>0.001003739795236794</v>
+        <v>-0.01355644554913462</v>
       </c>
       <c r="D103">
-        <v>0.01565553472215023</v>
+        <v>0.000799840203674853</v>
       </c>
       <c r="E103">
-        <v>0.038604472632312</v>
+        <v>-0.003403255987586011</v>
       </c>
       <c r="F103">
-        <v>0.01234907713245489</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01614571209945741</v>
+      </c>
+      <c r="G103">
+        <v>-0.0003476099895026717</v>
+      </c>
+      <c r="H103">
+        <v>0.01141080349581825</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.08684535752101977</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.02865889810466302</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.981853534407977</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.0417780695058091</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.0006118755815302325</v>
+      </c>
+      <c r="G104">
+        <v>-0.1049094091316375</v>
+      </c>
+      <c r="H104">
+        <v>0.0712519644130455</v>
       </c>
     </row>
   </sheetData>
